--- a/data/Behavioral/description/WISC.xlsx
+++ b/data/Behavioral/description/WISC.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Research/Healthy Brain Network/Data Sharing/Release4/Data Dictionaries/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="0" windowWidth="32740" windowHeight="18400" tabRatio="500"/>
+    <workbookView xWindow="5660" yWindow="460" windowWidth="32740" windowHeight="18400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>WISC-V</t>
   </si>
@@ -246,12 +254,6 @@
     <t>If no, reason</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>incomplete _reason</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -292,6 +294,9 @@
   </si>
   <si>
     <t>Scores</t>
+  </si>
+  <si>
+    <t>WISC_incomplete_reason</t>
   </si>
 </sst>
 </file>
@@ -342,6 +347,7 @@
       <sz val="16"/>
       <color rgb="FF4F81BD"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -880,10 +886,10 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
@@ -892,64 +898,64 @@
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="20">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -960,7 +966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -971,7 +977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -982,7 +988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -993,7 +999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1169,18 +1175,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -1202,18 +1208,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1235,18 +1241,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1268,18 +1274,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -1301,18 +1307,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1334,18 +1340,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
@@ -1370,10 +1376,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>